--- a/Documents/Mini svendeprøve projekt Gantt diagram.xlsx
+++ b/Documents/Mini svendeprøve projekt Gantt diagram.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E750E0FC-E0F6-4AE7-A7D5-D228E94934D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Mercantec\H5\Mini-svendeproeve-projekt\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ACC293-78DC-41E7-9F3B-AA644335EFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tidsplan før arbejde" sheetId="1" r:id="rId1"/>
+    <sheet name="Tidsplan efter arbejde" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Process</t>
   </si>
@@ -42,17 +48,20 @@
     <t>Create controllers for the web api</t>
   </si>
   <si>
-    <t>Setup UI on the website</t>
+    <t>Create unit test</t>
   </si>
   <si>
-    <t>Create unit test</t>
+    <t>Setup UI on the website and setup chat with SignalR</t>
+  </si>
+  <si>
+    <t>Finish documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -135,6 +150,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,17 +469,17 @@
   <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="15" width="18.28515625" customWidth="1"/>
+    <col min="4" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,63 +516,193 @@
       <c r="N2" s="2">
         <v>45043</v>
       </c>
-      <c r="O2" s="2">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39D23B6-9CEB-4EC0-A503-C500F87A7AFD}">
+  <dimension ref="A2:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="15" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45033</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45034</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45035</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45036</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45037</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45038</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45039</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45040</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45041</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45042</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45043</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
   </sheetData>

--- a/Documents/Mini svendeprøve projekt Gantt diagram.xlsx
+++ b/Documents/Mini svendeprøve projekt Gantt diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Mercantec\H5\Mini-svendeproeve-projekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ACC293-78DC-41E7-9F3B-AA644335EFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720CF04-8555-4AC4-8AF7-759D40D99CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsplan før arbejde" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Process</t>
   </si>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -584,6 +584,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -591,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39D23B6-9CEB-4EC0-A503-C500F87A7AFD}">
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,6 +684,12 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -707,5 +714,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>